--- a/SDP/Filexel/FakerKeamanan.xlsx
+++ b/SDP/Filexel/FakerKeamanan.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Laporan7Faker" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LaporanFaker" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,185 +424,600 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SRT/41867047550974194</t>
+          <t>14/04/2023 00:36:15</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>974501701027</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Kunci</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>MURSININ HARYANTi BIN sugiono</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Musnahkan</t>
+          <t>14/04/2023 01:36:15</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SRT/03014663722961270</t>
+          <t>14/04/2023 00:36:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>786394690511</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>uang</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NILAM WIBOWo BIN sugiono</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Musnahkan</t>
+          <t>14/04/2023 01:36:15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SRT/09607446734449542</t>
+          <t>14/04/2023 00:36:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>542276306250</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kunci</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>IRIANA TAMBa BINTI waloyo</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Musnahkan</t>
+          <t>14/04/2023 01:36:15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SRT/78191588550879186</t>
+          <t>14/04/2023 00:36:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>728278825601</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kacamata</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>WULAN SIREGAr BIN waloyo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Amankan</t>
+          <t>14/04/2023 01:36:15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SRT/53536018663510995</t>
+          <t>14/04/2023 00:36:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>082530556178</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kertas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MURSININ HARYANTi BIN sugiono</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Musnahkan</t>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>14/04/2023 00:36:15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>14/04/2023 01:36:15</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/FakerKeamanan.xlsx
+++ b/SDP/Filexel/FakerKeamanan.xlsx
@@ -423,170 +423,176 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Rerum ipsam quasi.</t>
+          <t>Consequatur eligendi corporis delectus pariatur.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ipsam laborum asperiores aperiam. Aut consectetur accusamus perspiciatis quibusdam dignissimos aliquam sapiente. Ullam corporis dolorum rerum sapiente. Sed vel illo.
-Ad qui ipsum quis saepe numquam. Velit nulla veniam ipsam dicta ipsa expedita nulla.</t>
+          <t>Totam nemo pariatur alias quo odit dignissimos. Debitis quae provident in iste possimus perspiciatis. Quos accusamus rerum labore sint. Delectus ab libero ipsam.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Laudantium doloribus distinctio enim eos at. Asperiores suscipit sed nobis expedita omnis iusto.
-Veritatis voluptatum nisi laborum eum dolores ipsam excepturi. Dolorem eligendi quisquam ex dolorum.
-A esse voluptatibus repellendus officia praesentium.</t>
+          <t>Ipsam exercitationem quis nesciunt perferendis. Dolor incidunt commodi accusantium quibusdam.
+At sed dolorem qui minima facilis vel modi.</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Ullam iure ea omnis alias alias. Eius ipsa consequuntur sed dignissimos dolorum tenetur.</t>
+          <t>Cupiditate corporis ab alias. Similique a ipsum illo commodi. Ullam quibusdam incidunt nesciunt nulla.
+Officiis odit ratione animi ipsum porro. Fuga beatae cumque quaerat quidem itaque ipsam.</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Quos natus repellat provident. At explicabo quaerat fuga quidem deserunt inventore. Corrupti molestiae impedit dolor ullam consequuntur.</t>
+          <t>Dignissimos officia aperiam. Asperiores porro corrupti doloremque.
+Ratione sint quia occaecati saepe nisi.
+Explicabo molestias tempore aut est accusantium.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doloremque incidunt commodi quis.</t>
+          <t>Dicta hic molestias labore maiores consectetur ad.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Blanditiis laboriosam amet cupiditate dolores. Minima voluptates vero voluptatum doloribus.
-Ducimus veniam velit quia eveniet. Eveniet natus dolorum blanditiis voluptatem itaque consequatur.</t>
+          <t>Ad harum et. Eligendi quia veniam officia iste placeat accusamus.
+Voluptatum earum aliquid culpa ea nemo. Excepturi eos cumque eum ad qui.
+Officiis ea dignissimos. Ad cum quam debitis recusandae dolores possimus. Doloribus animi sed aliquid vero.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quos laborum dolores accusantium ea. Blanditiis at fuga.
-Eligendi quia placeat nostrum quibusdam. Veniam molestiae impedit reprehenderit aliquid nobis.
-Doloremque doloribus consequuntur fugit minus sint. Facere soluta culpa esse harum consectetur quis.</t>
+          <t>Dolorum laborum ipsa perspiciatis minima inventore. Laborum nulla ipsam ab ex doloremque. Saepe iste ea vel pariatur cumque aut aliquid.
+Molestiae eaque nesciunt dignissimos. Possimus repudiandae inventore minima ducimus.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Quaerat enim ratione ipsum in laudantium minus. Distinctio debitis cum assumenda dicta tempore eligendi.
-Maxime iure eum voluptatibus ipsa ratione. Quo non distinctio quasi sapiente dicta explicabo. Adipisci ratione accusamus consequatur quidem suscipit.</t>
+          <t>Animi soluta fuga facere dolorem. Culpa expedita velit commodi iusto voluptas. Quaerat est tempore ea. Sint cupiditate saepe facilis placeat.
+Reiciendis eius eius quaerat. Voluptatem vel pariatur nobis illo possimus iusto.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Magnam repellat quam. Enim distinctio totam ut laborum explicabo accusantium. Doloribus fugit magni debitis doloribus.</t>
+          <t>Unde id ut error omnis optio. Minima suscipit odio omnis. Ipsum laudantium explicabo ipsum dolor quia error.
+Praesentium eos aperiam occaecati enim.
+Omnis suscipit dolorem autem maiores sequi. Eos libero vitae praesentium eaque.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blanditiis est ducimus aliquid illo quos magnam.</t>
+          <t>Minus consectetur exercitationem mollitia dolor.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Voluptate fugiat cumque doloribus error optio omnis. Nostrum tempore quam cum.
-Sit beatae neque molestiae voluptates nisi autem. Cum illum atque harum ullam. Ex atque maxime officia voluptate.
-Rem reprehenderit non sed.</t>
+          <t>Explicabo animi soluta quam. Adipisci qui tenetur.
+Labore sed itaque id. Aliquam aliquid libero laboriosam ipsum quae maiores. Quibusdam nulla eum a consectetur ab voluptas.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Laborum recusandae accusantium voluptates explicabo. Quibusdam dignissimos at quam voluptatum. Tempora voluptate odio.
-Quo at minus dolorum eaque natus officia. Quod fugit neque at.</t>
+          <t>Odio vel vitae reiciendis animi perspiciatis quis perferendis. Quidem rem impedit occaecati aliquid molestiae dolorem.
+Vel harum magni magni suscipit ipsum. Qui cumque recusandae magnam nulla commodi. Cum labore sequi fugit.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mollitia ipsa labore. Accusamus exercitationem possimus dolorum deserunt blanditiis laborum.
-Nisi perferendis quaerat accusamus iure molestias. Voluptates a quibusdam eligendi rem qui.</t>
+          <t>Nam magni eum deleniti similique rerum nesciunt. Adipisci enim id deleniti.
+Officiis cum magni nisi. Consectetur quia nihil molestias ducimus laboriosam consequatur.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Soluta maiores reprehenderit. Numquam tempora est pariatur nesciunt debitis eum molestiae.
-Quibusdam cupiditate amet facilis ipsum totam. A reprehenderit possimus harum pariatur illo reiciendis nam.</t>
+          <t>Accusamus nobis fuga tempore explicabo repellendus. Architecto laborum modi explicabo.
+Ut vitae possimus autem molestias eum. Molestias quam incidunt eos eaque.
+Error rerum rem incidunt. Sit maiores minus.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Totam corrupti ab sapiente quaerat sed.</t>
+          <t>Et voluptate veniam nostrum iure quae iste.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Et voluptatum laboriosam impedit accusamus laudantium quam cupiditate. Fugiat soluta quae nemo dolorem eaque dignissimos.
-Quasi facere soluta ex ipsam. Quisquam eos dignissimos doloribus. Repudiandae tempora repudiandae praesentium quis.</t>
+          <t>Libero vel ex quis doloremque. Quo nisi ducimus quaerat alias consectetur laudantium. Sunt at consequatur facilis ullam.
+Fugit optio facere eius sequi veritatis. Dicta asperiores sint dolor id.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Veniam ratione eaque autem alias aliquam minima. Quae tempore dolorum. Esse eum maxime earum unde dolorem tempore. Laborum reiciendis nam voluptas rem quis.</t>
+          <t>Mollitia illum itaque ipsam nemo. Tenetur accusantium hic suscipit at tempore odio.
+Quos nihil vitae eveniet.
+Iure ipsam sit expedita amet. Dolor eos minus ab harum soluta.
+Sapiente commodi quas modi facere ab.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Voluptate voluptate laboriosam illo perferendis laudantium similique.
-Quaerat unde voluptatum aliquid vel. Voluptas reprehenderit iure unde repellat. Assumenda dolorum vero iusto quod eum eos.
-Cumque quaerat ut.</t>
+          <t>Repudiandae nam magni nobis labore necessitatibus alias nobis. Cumque dolores optio porro officia quisquam error.
+Saepe delectus expedita harum incidunt mollitia. Ducimus molestias dicta odio impedit commodi.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Quis illum quidem commodi. Rerum magni cumque ea iure nobis exercitationem. Minus id corporis.
-Ipsam voluptatum unde fuga. Accusamus debitis distinctio amet incidunt.
-Sunt iure doloribus. Expedita magni libero.</t>
+          <t>Culpa nesciunt esse autem sed quisquam vero occaecati. Totam nostrum iste unde ipsam autem odit voluptate.
+Iure laudantium vero sit. Qui necessitatibus eum suscipit. Architecto dignissimos quidem voluptas porro ipsam.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fuga provident ipsum dolorum sequi repellat tempore.</t>
+          <t>Optio excepturi ipsum dolor architecto est error.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Occaecati facere sed quas tempora.
-Eius eveniet explicabo veniam blanditiis. Magni expedita facilis harum voluptates ullam. Consectetur suscipit voluptas nam.</t>
+          <t>Repudiandae voluptatibus facere dignissimos in perspiciatis dolores. Error necessitatibus facere amet.
+Dignissimos ipsa eveniet dolorum ipsa numquam praesentium. In beatae commodi recusandae praesentium at.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Omnis quas asperiores cupiditate in laudantium. Exercitationem est aut animi ea. Deserunt est quia necessitatibus odio harum. Distinctio voluptatem corrupti necessitatibus quae molestiae error ratione.</t>
+          <t>Consequatur fugit animi nobis earum neque dolore. Mollitia nemo nam enim assumenda veritatis.
+Expedita possimus accusantium tempora at expedita. Assumenda quod neque sapiente.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Quae eaque veritatis deleniti velit minima alias. Sed occaecati quia. Vero amet ipsam qui occaecati.
-Deserunt laudantium minima fuga. Tempore quae rem occaecati harum provident quas.</t>
+          <t>Rem quam voluptate mollitia fuga ducimus. Molestiae sapiente voluptatibus laboriosam. Vero dolorum ab aliquid.
+Magni consectetur at magni maiores mollitia libero sunt. Ad dolore saepe enim magni nobis soluta.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nobis veritatis nemo earum voluptatibus. Aspernatur at numquam velit dicta dolorum assumenda alias. Quo perferendis nam facilis a optio.</t>
+          <t>Doloremque porro voluptas nemo. Eaque assumenda nisi.
+Laborum iure reprehenderit nostrum voluptatibus. Dolorum asperiores quos facere odit consequatur. Eum esse recusandae impedit accusantium quod. Ad consequatur vel ea unde.</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/FakerKeamanan.xlsx
+++ b/SDP/Filexel/FakerKeamanan.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,177 +422,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>8</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Consequatur eligendi corporis delectus pariatur.</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Totam nemo pariatur alias quo odit dignissimos. Debitis quae provident in iste possimus perspiciatis. Quos accusamus rerum labore sint. Delectus ab libero ipsam.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Ipsam exercitationem quis nesciunt perferendis. Dolor incidunt commodi accusantium quibusdam.
-At sed dolorem qui minima facilis vel modi.</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Cupiditate corporis ab alias. Similique a ipsum illo commodi. Ullam quibusdam incidunt nesciunt nulla.
-Officiis odit ratione animi ipsum porro. Fuga beatae cumque quaerat quidem itaque ipsam.</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Dignissimos officia aperiam. Asperiores porro corrupti doloremque.
-Ratione sint quia occaecati saepe nisi.
-Explicabo molestias tempore aut est accusantium.</t>
+          <t>10/05/2023</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dicta hic molestias labore maiores consectetur ad.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ad harum et. Eligendi quia veniam officia iste placeat accusamus.
-Voluptatum earum aliquid culpa ea nemo. Excepturi eos cumque eum ad qui.
-Officiis ea dignissimos. Ad cum quam debitis recusandae dolores possimus. Doloribus animi sed aliquid vero.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Dolorum laborum ipsa perspiciatis minima inventore. Laborum nulla ipsam ab ex doloremque. Saepe iste ea vel pariatur cumque aut aliquid.
-Molestiae eaque nesciunt dignissimos. Possimus repudiandae inventore minima ducimus.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Animi soluta fuga facere dolorem. Culpa expedita velit commodi iusto voluptas. Quaerat est tempore ea. Sint cupiditate saepe facilis placeat.
-Reiciendis eius eius quaerat. Voluptatem vel pariatur nobis illo possimus iusto.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Unde id ut error omnis optio. Minima suscipit odio omnis. Ipsum laudantium explicabo ipsum dolor quia error.
-Praesentium eos aperiam occaecati enim.
-Omnis suscipit dolorem autem maiores sequi. Eos libero vitae praesentium eaque.</t>
+          <t>10/05/2023</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minus consectetur exercitationem mollitia dolor.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Explicabo animi soluta quam. Adipisci qui tenetur.
-Labore sed itaque id. Aliquam aliquid libero laboriosam ipsum quae maiores. Quibusdam nulla eum a consectetur ab voluptas.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Odio vel vitae reiciendis animi perspiciatis quis perferendis. Quidem rem impedit occaecati aliquid molestiae dolorem.
-Vel harum magni magni suscipit ipsum. Qui cumque recusandae magnam nulla commodi. Cum labore sequi fugit.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Nam magni eum deleniti similique rerum nesciunt. Adipisci enim id deleniti.
-Officiis cum magni nisi. Consectetur quia nihil molestias ducimus laboriosam consequatur.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Accusamus nobis fuga tempore explicabo repellendus. Architecto laborum modi explicabo.
-Ut vitae possimus autem molestias eum. Molestias quam incidunt eos eaque.
-Error rerum rem incidunt. Sit maiores minus.</t>
+          <t>10/05/2023</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Et voluptate veniam nostrum iure quae iste.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Libero vel ex quis doloremque. Quo nisi ducimus quaerat alias consectetur laudantium. Sunt at consequatur facilis ullam.
-Fugit optio facere eius sequi veritatis. Dicta asperiores sint dolor id.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mollitia illum itaque ipsam nemo. Tenetur accusantium hic suscipit at tempore odio.
-Quos nihil vitae eveniet.
-Iure ipsam sit expedita amet. Dolor eos minus ab harum soluta.
-Sapiente commodi quas modi facere ab.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Repudiandae nam magni nobis labore necessitatibus alias nobis. Cumque dolores optio porro officia quisquam error.
-Saepe delectus expedita harum incidunt mollitia. Ducimus molestias dicta odio impedit commodi.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Culpa nesciunt esse autem sed quisquam vero occaecati. Totam nostrum iste unde ipsam autem odit voluptate.
-Iure laudantium vero sit. Qui necessitatibus eum suscipit. Architecto dignissimos quidem voluptas porro ipsam.</t>
+          <t>10/05/2023</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optio excepturi ipsum dolor architecto est error.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Repudiandae voluptatibus facere dignissimos in perspiciatis dolores. Error necessitatibus facere amet.
-Dignissimos ipsa eveniet dolorum ipsa numquam praesentium. In beatae commodi recusandae praesentium at.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Consequatur fugit animi nobis earum neque dolore. Mollitia nemo nam enim assumenda veritatis.
-Expedita possimus accusantium tempora at expedita. Assumenda quod neque sapiente.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rem quam voluptate mollitia fuga ducimus. Molestiae sapiente voluptatibus laboriosam. Vero dolorum ab aliquid.
-Magni consectetur at magni maiores mollitia libero sunt. Ad dolore saepe enim magni nobis soluta.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Doloremque porro voluptas nemo. Eaque assumenda nisi.
-Laborum iure reprehenderit nostrum voluptatibus. Dolorum asperiores quos facere odit consequatur. Eum esse recusandae impedit accusantium quod. Ad consequatur vel ea unde.</t>
+          <t>10/05/2023</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/FakerKeamanan.xlsx
+++ b/SDP/Filexel/FakerKeamanan.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Laporan7Faker" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LaporanFaker" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,60 +424,2250 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>297350</v>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Officia fugit ut enim voluptates porro laborum.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>Kerusuhan Kunjungan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>526778</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>A consectetur architecto corporis. Sit saepe facilis incidunt eaque ad odit.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>Kerusuhan Kunjungan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>652722</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nam nemo voluptatem fugiat minus ullam.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>806114</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Quod debitis dicta fuga ad nemo. Beatae quae voluptatem aliquid quae.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>Kerusuhan Kunjungan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>81765</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nostrum amet animi alias rem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>477895</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>At ipsum quas ratione. Libero mollitia dolor laborum inventore molestiae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>131942</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Nam aut corrupti iure. Architecto necessitatibus consequuntur illum totam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>566393</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Consequatur amet itaque distinctio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>796426</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Rerum pariatur dolore soluta nostrum at fuga a. Voluptatum ad deleniti excepturi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>511599</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Voluptate ab quo quibusdam magni. Dignissimos ipsam doloremque tenetur dolorem architecto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>687955</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Officia illo maiores quaerat sit expedita officiis. Qui incidunt repellendus nobis qui.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>83348</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Maiores necessitatibus incidunt non.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>530973</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Odio sint porro esse pariatur magni. Reiciendis nisi sit pariatur deserunt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>918071</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Debitis blanditiis porro commodi accusamus earum aperiam error. Numquam aliquid optio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>821644</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Hic libero fuga sed quam. Corrupti eaque iusto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>44037</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dolorem voluptatem voluptas harum. Ab provident omnis suscipit qui fugiat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>703595</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Molestias earum occaecati laborum vitae. Amet similique distinctio sint officiis quo magni.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>940580</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Laboriosam aliquam quam eveniet perspiciatis saepe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>734112</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Ex doloremque minima necessitatibus similique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>803231</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Deserunt similique eaque non hic deleniti. At neque explicabo quos expedita cumque reiciendis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>536095</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Quo voluptate error eaque perspiciatis ullam doloremque eaque.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>277121</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Earum aut excepturi iusto doloremque officia praesentium. Assumenda debitis sapiente laudantium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>574083</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Blanditiis officiis repudiandae temporibus veniam quas accusamus. Dicta minima quis hic commodi quas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>324289</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Soluta laborum officia rem temporibus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>80305</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Autem possimus laborum dolores sit. Nemo nihil nihil in quisquam in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>50879</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Dolorum mollitia optio sunt commodi. Adipisci sint expedita est.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>201850</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Quas accusamus labore expedita. Exercitationem aperiam mollitia nulla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>418813</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Error fugiat ea enim incidunt quis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>292937</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sed facere hic ipsa at consequuntur recusandae expedita. Repellat dolore vel ut ipsam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>846192</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Quae dignissimos odio libero earum vel ullam iste. Dolores dolore consequatur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>234239</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Qui dicta minima. Quasi quibusdam sit optio dignissimos dolore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>121974</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Quibusdam quod ratione nostrum odit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>624133</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Suscipit iusto rem eaque iure tempore eaque blanditiis. Pariatur libero quidem laudantium sunt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>757025</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Iste consequatur sed modi at. Nostrum corrupti perspiciatis consequatur suscipit natus natus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>481169</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Eum aliquid dolorum sit error dolorum id. Eligendi aspernatur laborum laboriosam quis qui.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>168733</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Molestiae culpa totam officiis occaecati officiis ipsa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>139557</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Quod mollitia in consequuntur aliquam perspiciatis. Veniam atque eos ipsum nesciunt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>232227</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Quisquam dolorem maiores id. Consequatur voluptatum quisquam itaque itaque sit corrupti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>195338</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Id aperiam assumenda deleniti culpa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>321000</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Dolores repudiandae voluptatem. Neque quos corrupti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>545406</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>In aut recusandae quis explicabo eos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>779875</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Neque dolorum corrupti dolore at harum vitae. Quisquam consequuntur quam sint ex.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>452208</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Fuga iure non quaerat assumenda provident dolore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>743815</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Laborum reiciendis officia similique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>310102</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Placeat harum dolores nostrum. Necessitatibus fugit sint fugit vel blanditiis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>131020</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Unde iusto error temporibus omnis suscipit nisi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>113403</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Disiplin</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Eum nihil porro totam reprehenderit maxime voluptatibus. Explicabo quod ipsum beatae minima maiores porro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan Petugas dengan WBP </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>96980</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Autem perspiciatis voluptas explicabo. Explicabo sunt unde inventore magnam laudantium porro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kerusuhan Kunjungan</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>824763</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Evaluasi</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Voluptatibus accusantium tempore quaerat nulla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerusuhan WBP dengan WBP </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>28/05/2023 18:42:58</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>746313</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Pengawasan</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Ut cum asperiores quod veritatis nihil.</t>
         </is>
       </c>
     </row>
